--- a/B Bus/B1 Power/Power Budget.xlsx
+++ b/B Bus/B1 Power/Power Budget.xlsx
@@ -213,7 +213,7 @@
     <t>Payload</t>
   </si>
   <si>
-    <t>i</t>
+    <t>(Only one radio on at a time)</t>
   </si>
 </sst>
 </file>
@@ -602,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
     <col min="7" max="7" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -663,7 +663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -685,7 +685,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -729,7 +729,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -751,7 +751,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -773,7 +773,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -795,7 +795,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -839,7 +839,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -883,7 +883,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
@@ -907,7 +907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
@@ -928,11 +928,8 @@
         <v>9.8999999999999986</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="I14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -954,7 +951,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
@@ -1164,7 +1161,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="10">
         <v>13.6</v>
@@ -1174,10 +1171,13 @@
       </c>
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>14960</v>
+        <v>7480</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>56</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="10">
         <v>13.6</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>1088</v>
+        <v>544</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1210,7 +1210,7 @@
         <v>54</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="10">
         <v>13.6</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>1632</v>
+        <v>816</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">

--- a/B Bus/B1 Power/Power Budget.xlsx
+++ b/B Bus/B1 Power/Power Budget.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="18840" windowHeight="15020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>IC</t>
   </si>
@@ -129,9 +134,6 @@
     <t>ATxmega64A3-AU</t>
   </si>
   <si>
-    <t>BCR Micro</t>
-  </si>
-  <si>
     <t>LTC6990MP</t>
   </si>
   <si>
@@ -214,6 +216,12 @@
   </si>
   <si>
     <t>(Only one radio on at a time)</t>
+  </si>
+  <si>
+    <t>Total Power:</t>
+  </si>
+  <si>
+    <t>BCR Microcontroller</t>
   </si>
 </sst>
 </file>
@@ -258,7 +266,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -266,7 +274,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -275,10 +283,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,19 +302,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,24 +613,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,436 +650,436 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E2" s="5">
         <v>100</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="5">
         <f>E2*D2*C2</f>
         <v>330</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F21" si="0">E3*D3*C3</f>
         <v>1.9799999999999998</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.25</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>1.65</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="2">
         <v>7</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>92.399999999999991</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E8" s="2">
         <v>5.5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E11" s="2">
         <v>15</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="4">
         <v>12</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>39.599999999999994</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>30</v>
       </c>
-      <c r="D13" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E13" s="5">
         <v>1.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>148.49999999999997</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.75</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>9.8999999999999986</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.5</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>6</v>
       </c>
-      <c r="D16" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="E16" s="4">
         <v>0.45</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>8.91</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3.3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3.3</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3.3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>3.3</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>3.3</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.98999999999999988</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3.3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>3.3</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.65</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1076,227 +1087,241 @@
       <c r="D21">
         <v>3.3</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>0.04</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0.26400000000000001</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="2">
         <v>8</v>
       </c>
-      <c r="D22" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.45</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="2">
         <f t="shared" ref="F22:F29" si="1">E22*D22*C22</f>
         <v>11.879999999999999</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="C23" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="D23" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
         <f t="shared" si="1"/>
         <v>9.8999999999999986</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="G23" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>5</v>
       </c>
-      <c r="D24" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D24" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="E24" s="7">
         <v>5</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="7">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
         <v>13.6</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>550</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <f t="shared" si="1"/>
         <v>7480</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>59</v>
+      <c r="G25" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>13.6</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>40</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="6">
         <f t="shared" si="1"/>
         <v>544</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>54</v>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>13.6</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="6">
         <v>30</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <f t="shared" si="1"/>
         <v>816</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="12"/>
       <c r="H27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
         <v>5</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="8">
         <v>170</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="8">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="6">
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E29" s="6">
         <v>1.5</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <f t="shared" si="1"/>
         <v>9.8999999999999986</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
         <v>1000</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="6">
+        <f>SUM(F2:F30)</f>
+        <v>11570.704</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="G28:G30"/>
     <mergeCell ref="G2:G12"/>
     <mergeCell ref="G13:G16"/>
     <mergeCell ref="G17:G22"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G25:G27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G28:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1306,9 +1331,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1318,8 +1348,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>